--- a/_CLUSTER/groups_time_area/Frost/MALI/control_points_count.xlsx
+++ b/_CLUSTER/groups_time_area/Frost/MALI/control_points_count.xlsx
@@ -373,18 +373,18 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2370</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>1888</v>
+        <v>2078</v>
       </c>
     </row>
   </sheetData>

--- a/_CLUSTER/groups_time_area/Frost/MALI/control_points_count.xlsx
+++ b/_CLUSTER/groups_time_area/Frost/MALI/control_points_count.xlsx
@@ -373,18 +373,18 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2177</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2078</v>
+        <v>1592</v>
       </c>
     </row>
   </sheetData>

--- a/_CLUSTER/groups_time_area/Frost/MALI/control_points_count.xlsx
+++ b/_CLUSTER/groups_time_area/Frost/MALI/control_points_count.xlsx
@@ -373,18 +373,18 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2666</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>1592</v>
+        <v>2090</v>
       </c>
     </row>
   </sheetData>
